--- a/templates/staff/notif_in.xlsx
+++ b/templates/staff/notif_in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD74C46-853B-4E8E-9A2F-56F04286013A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6D114-90FB-4559-8909-CACA36A06062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="s3" sheetId="3" r:id="rId3"/>
     <sheet name="s4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="126">
   <si>
     <t xml:space="preserve">к приказу МВД России </t>
   </si>
@@ -190,9 +196,6 @@
   </si>
   <si>
     <t>от 30.07.2020 № 536</t>
-  </si>
-  <si>
-    <t>З</t>
   </si>
   <si>
     <t>(Оборотная сторона)</t>
@@ -351,36 +354,21 @@
     <t>от</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>Паспортные данные лица, подавшего уведомление по доверенности:</t>
   </si>
   <si>
     <t>Фамилия, имя, отчество (при наличии)</t>
   </si>
   <si>
-    <t>Радько Елена</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Выдан</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кем выдан: </t>
   </si>
   <si>
-    <t>орган 5112 Украина г. Одесса</t>
-  </si>
-  <si>
     <t>(подпись лица, представляющего уведомление)</t>
   </si>
   <si>
@@ -397,6 +385,36 @@
   </si>
   <si>
     <t>(индекс, субъект Российской Федерации, район, город, населенный пункт, улица, дом, квартира/офис)</t>
+  </si>
+  <si>
+    <t>Ц</t>
+  </si>
+  <si>
+    <t>Ы</t>
+  </si>
+  <si>
+    <t>Я</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Э</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Радько Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>ГУ МВД России по г. Москва</t>
   </si>
 </sst>
 </file>
@@ -725,12 +743,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,35 +800,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -809,9 +854,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,28 +863,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,38 +902,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,12 +946,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,16 +1263,16 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1281,16 +1299,16 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="AE3" s="50" t="s">
+      <c r="AE3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1317,16 +1335,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="AE4" s="50" t="s">
+      <c r="AE4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1353,254 +1371,254 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="AE5" s="51" t="s">
+      <c r="AE5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="43"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
     </row>
     <row r="10" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="49"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="59"/>
     </row>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -1777,77 +1795,77 @@
       <c r="AL16" s="12"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
     </row>
     <row r="18" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="48"/>
       <c r="X19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="57" t="s">
+      <c r="Y19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Z19" s="58"/>
+      <c r="Z19" s="50"/>
       <c r="AA19" s="11" t="s">
         <v>25</v>
       </c>
@@ -1863,48 +1881,48 @@
       <c r="B21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
       <c r="O21" s="14"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="42" t="s">
+      <c r="R21" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
     </row>
     <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
@@ -1923,75 +1941,75 @@
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
     </row>
     <row r="23" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="14"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="52" t="s">
+      <c r="R23" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
     </row>
     <row r="24" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
@@ -2037,48 +2055,48 @@
       <c r="B25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="14"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="52" t="s">
+      <c r="R25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
     </row>
     <row r="26" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
@@ -2124,79 +2142,79 @@
       <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
       <c r="O27" s="9"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="52" t="s">
+      <c r="R27" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="52"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
     </row>
     <row r="28" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
       <c r="AA29" s="11">
         <v>1</v>
       </c>
@@ -2225,32 +2243,32 @@
       <c r="AL29" s="11"/>
     </row>
     <row r="30" spans="1:38" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
     </row>
     <row r="31" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -2559,46 +2577,46 @@
       <c r="AL35" s="11"/>
     </row>
     <row r="36" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="56"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
@@ -2667,46 +2685,46 @@
       <c r="AL37" s="19"/>
     </row>
     <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-      <c r="AB38" s="45"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="45"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="45"/>
-      <c r="AG38" s="45"/>
-      <c r="AH38" s="45"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="45"/>
-      <c r="AK38" s="45"/>
-      <c r="AL38" s="45"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="55"/>
+      <c r="AH38" s="55"/>
+      <c r="AI38" s="55"/>
+      <c r="AJ38" s="55"/>
+      <c r="AK38" s="55"/>
+      <c r="AL38" s="55"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -2749,46 +2767,46 @@
       <c r="AL39" s="11"/>
     </row>
     <row r="40" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55"/>
+      <c r="AH40" s="55"/>
+      <c r="AI40" s="55"/>
+      <c r="AJ40" s="55"/>
+      <c r="AK40" s="55"/>
+      <c r="AL40" s="55"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -2831,46 +2849,46 @@
       <c r="AL41" s="11"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="44"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
     </row>
     <row r="46" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -2884,89 +2902,101 @@
       <c r="I46" s="29"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="41"/>
-      <c r="AK47" s="41"/>
-      <c r="AL47" s="41"/>
+      <c r="A47" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
     </row>
     <row r="48" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="41"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41"/>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="41"/>
-      <c r="AL48" s="41"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A47:AL48"/>
+    <mergeCell ref="R21:AL22"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A9:AL9"/>
+    <mergeCell ref="A42:AL42"/>
+    <mergeCell ref="A40:AL40"/>
+    <mergeCell ref="A38:AL38"/>
+    <mergeCell ref="A36:AL36"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="A11:AF11"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="AE3:AL3"/>
     <mergeCell ref="AE4:AL4"/>
@@ -2983,18 +3013,6 @@
     <mergeCell ref="P19:W19"/>
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="C21:N21"/>
-    <mergeCell ref="A47:AL48"/>
-    <mergeCell ref="R21:AL22"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A9:AL9"/>
-    <mergeCell ref="A42:AL42"/>
-    <mergeCell ref="A40:AL40"/>
-    <mergeCell ref="A38:AL38"/>
-    <mergeCell ref="A36:AL36"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="A11:AF11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3005,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304FCDDA-3C46-436A-9FC0-23D80D46465A}">
   <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,86 +3034,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
+      <c r="A1" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
     </row>
     <row r="2" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
     </row>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -3138,46 +3156,46 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
+      <c r="A4" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
     </row>
     <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -3220,46 +3238,46 @@
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
+      <c r="A6" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
     </row>
     <row r="7" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -3303,19 +3321,45 @@
         <v>0</v>
       </c>
       <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
+      <c r="P7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="11">
+        <v>7</v>
+      </c>
+      <c r="U7" s="11">
+        <v>7</v>
+      </c>
+      <c r="V7" s="11">
+        <v>3</v>
+      </c>
+      <c r="W7" s="11">
+        <v>1</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1</v>
+      </c>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
@@ -3328,357 +3372,433 @@
       <c r="AL7" s="11"/>
     </row>
     <row r="8" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
+      <c r="A8" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
     </row>
     <row r="9" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="L9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11">
-        <v>7</v>
-      </c>
-      <c r="G9" s="11">
-        <v>3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
+      <c r="AE9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
     </row>
     <row r="10" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
+      <c r="A10" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
     </row>
     <row r="11" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="11">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="R11" s="11"/>
       <c r="S11" s="11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="T11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="U11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" s="11"/>
       <c r="AA11" s="11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AB11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AF11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
+      <c r="AK11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
+      <c r="A12" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
     </row>
     <row r="13" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="W13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11">
-        <v>1</v>
-      </c>
-      <c r="R13" s="11">
-        <v>5</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
+      <c r="AD13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>2</v>
+      </c>
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
@@ -3688,92 +3808,94 @@
       <c r="AL13" s="11"/>
     </row>
     <row r="14" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+    </row>
+    <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="80"/>
-    </row>
-    <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="11">
-        <v>8</v>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="J15" s="11">
+        <v>7</v>
+      </c>
+      <c r="K15" s="11">
         <v>4</v>
-      </c>
-      <c r="K15" s="11">
-        <v>9</v>
       </c>
       <c r="L15" s="11">
         <v>9</v>
       </c>
       <c r="M15" s="11">
+        <v>5</v>
+      </c>
+      <c r="N15" s="11">
         <v>1</v>
-      </c>
-      <c r="N15" s="11">
-        <v>4</v>
       </c>
       <c r="O15" s="11">
         <v>5</v>
       </c>
       <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
         <v>4</v>
       </c>
-      <c r="Q15" s="11">
-        <v>3</v>
-      </c>
       <c r="R15" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" s="11">
         <v>3</v>
       </c>
-      <c r="T15" s="11"/>
+      <c r="T15" s="11">
+        <v>5</v>
+      </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -3794,59 +3916,59 @@
       <c r="AL15" s="11"/>
     </row>
     <row r="17" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="79"/>
+      <c r="A17" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
     </row>
     <row r="18" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="A19" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -3919,16 +4041,16 @@
       <c r="AL20" s="13"/>
     </row>
     <row r="21" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="A21" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -4001,16 +4123,16 @@
       <c r="AL22" s="13"/>
     </row>
     <row r="23" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
+      <c r="A23" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -4043,14 +4165,14 @@
       <c r="AL23" s="11"/>
     </row>
     <row r="24" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -4083,16 +4205,16 @@
       <c r="AL24" s="13"/>
     </row>
     <row r="25" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="A25" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -4141,22 +4263,22 @@
       <c r="N26" s="20"/>
     </row>
     <row r="27" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
+      <c r="A27" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -4183,48 +4305,48 @@
       <c r="AL27" s="11"/>
     </row>
     <row r="28" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="61"/>
-      <c r="AH28" s="61"/>
-      <c r="AI28" s="61"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="61"/>
-      <c r="AL28" s="61"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="70"/>
     </row>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -4307,16 +4429,16 @@
       <c r="AL30" s="13"/>
     </row>
     <row r="31" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
+      <c r="A31" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="13"/>
@@ -4343,41 +4465,41 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63" t="s">
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="A33" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
       <c r="M33" s="21"/>
       <c r="N33" s="11" t="s">
         <v>17</v>
@@ -4420,55 +4542,55 @@
       <c r="AL33" s="11"/>
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="63" t="s">
+      <c r="A34" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+    </row>
+    <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="64"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="64"/>
-      <c r="AL34" s="64"/>
-    </row>
-    <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -4479,7 +4601,7 @@
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
@@ -4491,13 +4613,13 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-      <c r="X35" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="67"/>
+      <c r="X35" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="13"/>
@@ -4510,35 +4632,35 @@
       <c r="AL35" s="11"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="68" t="s">
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD36" s="77"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68" t="s">
+      <c r="AG36" s="77"/>
+      <c r="AH36" s="77"/>
+      <c r="AI36" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="64"/>
+      <c r="AJ36" s="73"/>
+      <c r="AK36" s="73"/>
+      <c r="AL36" s="73"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="A37" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -4649,66 +4771,49 @@
       <c r="AL41" s="11"/>
     </row>
     <row r="44" spans="1:38" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="60"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
+      <c r="A44" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="69"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="69"/>
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A17:AL17"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A10:AL10"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A14:AL14"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A4:AL4"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A23:H24"/>
     <mergeCell ref="A44:AL44"/>
     <mergeCell ref="O28:AL28"/>
     <mergeCell ref="A33:L33"/>
@@ -4723,6 +4828,23 @@
     <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A23:H24"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A4:AL4"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:AL17"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A10:AL10"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A14:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4733,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8EA858-A09D-4E12-8A83-50EC7DA554F9}">
   <dimension ref="A1:AP48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ40" sqref="AJ40"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4744,62 +4866,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
-      <c r="AL1" s="93"/>
+      <c r="A1" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
     </row>
     <row r="2" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="87"/>
+      <c r="A3" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="85"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4830,11 +4952,11 @@
     </row>
     <row r="4" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
+      <c r="A5" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -4845,7 +4967,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -4857,13 +4979,13 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
-      <c r="X5" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
+      <c r="X5" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="13"/>
@@ -4876,37 +4998,37 @@
       <c r="AL5" s="11"/>
     </row>
     <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="68" t="s">
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68" t="s">
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ6" s="64"/>
-      <c r="AK6" s="64"/>
-      <c r="AL6" s="64"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
     </row>
     <row r="7" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="87"/>
+      <c r="A8" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -4984,17 +5106,17 @@
     </row>
     <row r="11" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
+      <c r="A12" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="13"/>
@@ -5007,11 +5129,11 @@
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
-      <c r="V12" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="W12" s="92"/>
-      <c r="X12" s="86"/>
+      <c r="V12" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="13"/>
@@ -5035,87 +5157,87 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="88"/>
+      <c r="J13" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="86"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="O13" s="64"/>
+      <c r="N13" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="73"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
+      <c r="R13" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z13" s="88"/>
+      <c r="Y13" s="86" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" s="86"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
-      <c r="AC13" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD13" s="64"/>
+      <c r="AC13" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD13" s="73"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
-      <c r="AG13" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
+      <c r="AG13" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
     </row>
     <row r="15" spans="1:38" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
+      <c r="A15" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="69"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="69"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="69"/>
+      <c r="AL15" s="69"/>
     </row>
     <row r="16" spans="1:38" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -5125,96 +5247,96 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="87"/>
+      <c r="A17" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="26"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="87"/>
+      <c r="G17" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="26"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="87"/>
+      <c r="L17" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="27">
         <v>13</v>
       </c>
       <c r="P17" s="24"/>
-      <c r="Q17" s="50" t="s">
+      <c r="Q17" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="50"/>
-      <c r="AJ17" s="50"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
     </row>
     <row r="19" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5340,89 +5462,89 @@
       <c r="AL24" s="12"/>
     </row>
     <row r="25" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="90"/>
+      <c r="A25" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="88"/>
     </row>
     <row r="26" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
+      <c r="A27" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="66"/>
     </row>
     <row r="28" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5548,48 +5670,48 @@
       <c r="AL33" s="12"/>
     </row>
     <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="Y35" s="85" t="s">
+      <c r="A35" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="Y35" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="85"/>
-      <c r="AF35" s="86"/>
+      <c r="Z35" s="91"/>
+      <c r="AA35" s="91"/>
+      <c r="AB35" s="91"/>
+      <c r="AC35" s="91"/>
+      <c r="AD35" s="91"/>
+      <c r="AE35" s="91"/>
+      <c r="AF35" s="83"/>
       <c r="AG35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AH35" s="83" t="s">
+      <c r="AH35" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AI35" s="84"/>
+      <c r="AI35" s="90"/>
       <c r="AJ35" s="11" t="s">
         <v>25</v>
       </c>
@@ -5598,29 +5720,29 @@
       </c>
     </row>
     <row r="36" spans="1:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
     </row>
     <row r="37" spans="1:42" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5630,14 +5752,14 @@
       <c r="B38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
+      <c r="C38" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -5648,60 +5770,60 @@
       <c r="P38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="52"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="52"/>
-      <c r="AI38" s="52"/>
-      <c r="AJ38" s="52"/>
-      <c r="AK38" s="52"/>
-      <c r="AL38" s="52"/>
+      <c r="Q38" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
     </row>
     <row r="39" spans="1:42" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
+      <c r="A40" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="13"/>
@@ -5714,83 +5836,83 @@
       <c r="AJ40" s="11"/>
     </row>
     <row r="41" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="50"/>
-      <c r="AA41" s="81" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="AA41" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB41" s="92"/>
+      <c r="AC41" s="92"/>
+      <c r="AD41" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81" t="s">
+      <c r="AE41" s="92"/>
+      <c r="AF41" s="92"/>
+      <c r="AG41" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="AE41" s="81"/>
-      <c r="AF41" s="81"/>
-      <c r="AG41" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-      <c r="AJ41" s="82"/>
+      <c r="AH41" s="93"/>
+      <c r="AI41" s="93"/>
+      <c r="AJ41" s="93"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="69"/>
-      <c r="O43" s="69"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="69"/>
-      <c r="U43" s="69"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="69"/>
-      <c r="AA43" s="69"/>
-      <c r="AB43" s="69"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="69"/>
+      <c r="A43" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="65"/>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="65"/>
       <c r="AG43"/>
       <c r="AH43"/>
       <c r="AI43"/>
@@ -5867,70 +5989,92 @@
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="R45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="T45" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="U45" s="11"/>
       <c r="V45" s="11" t="s">
         <v>14</v>
       </c>
       <c r="W45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE45" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
+      <c r="AG45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH45" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="19"/>
+      <c r="AJ45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK45" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL45" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="AM45"/>
       <c r="AN45"/>
       <c r="AO45"/>
@@ -5976,71 +6120,105 @@
     </row>
     <row r="47" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11">
-        <v>6</v>
-      </c>
-      <c r="G47" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H47" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>13</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L47" s="11" t="s">
         <v>19</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11">
+        <v>18</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="11">
+        <v>6</v>
+      </c>
+      <c r="V47" s="11">
         <v>1</v>
       </c>
-      <c r="R47" s="11">
-        <v>5</v>
-      </c>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
       <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
+      <c r="X47" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>0</v>
+      </c>
       <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
+      <c r="AE47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH47" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
+      <c r="AJ47" s="11">
+        <v>1</v>
+      </c>
       <c r="AK47" s="11"/>
       <c r="AL47" s="11"/>
       <c r="AM47"/>
@@ -6056,16 +6234,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="X5:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A40:Y41"/>
+    <mergeCell ref="A43:AF43"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="A35:W36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="Q38:AL38"/>
     <mergeCell ref="A27:AL27"/>
     <mergeCell ref="AG13:AJ13"/>
     <mergeCell ref="A15:AL15"/>
@@ -6080,16 +6258,16 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A18:AL18"/>
     <mergeCell ref="A25:AL25"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="A35:W36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="Q38:AL38"/>
-    <mergeCell ref="A40:Y41"/>
-    <mergeCell ref="A43:AF43"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="X5:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6101,7 +6279,7 @@
   <dimension ref="A1:AW27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:N11"/>
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6111,46 +6289,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
+      <c r="A1" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
     </row>
     <row r="2" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -6193,174 +6371,174 @@
       <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="1:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="90"/>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
+      <c r="A3" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
     </row>
     <row r="5" spans="1:49" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+    </row>
+    <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-    </row>
-    <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107" t="s">
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="94"/>
+      <c r="AJ7" s="94"/>
+      <c r="AK7" s="94"/>
+      <c r="AL7" s="94"/>
+    </row>
+    <row r="8" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-    </row>
-    <row r="8" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AP9"/>
@@ -6396,16 +6574,16 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="AE10" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="98"/>
+      <c r="AE10" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="100"/>
       <c r="AP10"/>
       <c r="AQ10"/>
       <c r="AR10"/>
@@ -6417,38 +6595,38 @@
     </row>
     <row r="11" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
+        <v>101</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+        <v>101</v>
+      </c>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="23">
         <v>2</v>
       </c>
       <c r="L11" s="23">
         <v>0</v>
       </c>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="101"/>
+        <v>102</v>
+      </c>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="103"/>
       <c r="AP11"/>
       <c r="AQ11"/>
       <c r="AR11"/>
@@ -6474,68 +6652,68 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="32"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="106"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AF13" s="23"/>
     </row>
     <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="64">
+        <v>1</v>
+      </c>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="77">
+      <c r="W14" s="91"/>
+      <c r="X14" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" s="40">
         <v>1</v>
       </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="W14" s="85"/>
-      <c r="X14" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y14" s="40">
+      <c r="Z14" s="40">
         <v>0</v>
       </c>
-      <c r="Z14" s="40">
-        <v>1</v>
-      </c>
       <c r="AA14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB14" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
+        <v>101</v>
+      </c>
+      <c r="AB14" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="108"/>
       <c r="AH14" s="13">
         <v>2</v>
       </c>
@@ -6546,10 +6724,10 @@
         <v>2</v>
       </c>
       <c r="AK14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,85 +6771,85 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
+      <c r="A16" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
     </row>
     <row r="17" spans="1:43" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77"/>
+      <c r="A18" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
@@ -6680,54 +6858,54 @@
     </row>
     <row r="19" spans="1:43" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="77">
-        <v>787525</v>
-      </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
+      <c r="A20" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="64">
+        <v>4521</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="64">
+        <v>451768</v>
+      </c>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
       <c r="U20" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V20" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X20" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y20" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
+        <v>101</v>
+      </c>
+      <c r="Y20" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="108"/>
       <c r="AC20" s="13">
         <v>2</v>
       </c>
@@ -6735,13 +6913,13 @@
         <v>0</v>
       </c>
       <c r="AE20" s="40">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="40">
         <v>1</v>
       </c>
-      <c r="AF20" s="40">
-        <v>9</v>
-      </c>
       <c r="AG20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AH20"/>
       <c r="AI20"/>
@@ -6763,68 +6941,68 @@
       <c r="AO21"/>
     </row>
     <row r="22" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
+      <c r="A22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
       <c r="X22"/>
       <c r="Y22"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="94"/>
-      <c r="AJ22" s="94"/>
-      <c r="AK22" s="94"/>
-      <c r="AL22" s="94"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
       <c r="AM22"/>
       <c r="AN22"/>
       <c r="AO22"/>
     </row>
     <row r="23" spans="1:43" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z23" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
+      <c r="Z23" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="97"/>
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
@@ -6871,17 +7049,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A3:AL3"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P18:AL18"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="R7:AL7"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:W22"/>
     <mergeCell ref="Z22:AL22"/>
@@ -6898,6 +7065,17 @@
     <mergeCell ref="A16:AF16"/>
     <mergeCell ref="A18:O18"/>
     <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A3:AL3"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P18:AL18"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="R7:AL7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
